--- a/pre_data/Below_pre.xlsx
+++ b/pre_data/Below_pre.xlsx
@@ -1496,49 +1496,49 @@
         <v>0.09009009009009095</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1814,70 +1814,70 @@
         <v>0.5549549549549795</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -2034,76 +2034,76 @@
         <v>0.1458172458172413</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2751,37 +2751,37 @@
         <v>0.4723294723294984</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2941,73 +2941,73 @@
         <v>0.1468039468039493</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -3551,28 +3551,28 @@
         <v>0.01051051051052809</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -3610,82 +3610,82 @@
         <v>0.007936507936508796</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -4021,10 +4021,10 @@
         <v>0.7118404118404271</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4948,100 +4948,100 @@
         <v>1.017417417417434</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5183,91 +5183,91 @@
         <v>1.727927927927908</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5323,64 +5323,64 @@
         <v>3.308365508365455</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5552,61 +5552,61 @@
         <v>0.3140283140283309</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -6066,112 +6066,112 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:37">
